--- a/命令词列表_指令中文模板.xlsx
+++ b/命令词列表_指令中文模板.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="247">
   <si>
     <t>语义标签</t>
   </si>
@@ -62,460 +62,697 @@
     <t>命令词类型</t>
   </si>
   <si>
-    <t>小艺同学</t>
+    <t>小怪小怪</t>
   </si>
   <si>
     <t>唤醒词</t>
   </si>
   <si>
+    <t>查询电池电量</t>
+  </si>
+  <si>
+    <t>进入时钟设定</t>
+  </si>
+  <si>
+    <t>零点</t>
+  </si>
+  <si>
+    <t>一点</t>
+  </si>
+  <si>
+    <t>二点</t>
+  </si>
+  <si>
+    <t>两点</t>
+  </si>
+  <si>
+    <t>三点</t>
+  </si>
+  <si>
+    <t>四点</t>
+  </si>
+  <si>
+    <t>五点</t>
+  </si>
+  <si>
+    <t>六点</t>
+  </si>
+  <si>
+    <t>七点</t>
+  </si>
+  <si>
+    <t>八点</t>
+  </si>
+  <si>
+    <t>九点</t>
+  </si>
+  <si>
+    <t>十点</t>
+  </si>
+  <si>
+    <t>十一点</t>
+  </si>
+  <si>
+    <t>十二点</t>
+  </si>
+  <si>
+    <t>十三点</t>
+  </si>
+  <si>
+    <t>十四点</t>
+  </si>
+  <si>
+    <t>十五点</t>
+  </si>
+  <si>
+    <t>十六点</t>
+  </si>
+  <si>
+    <t>十七点</t>
+  </si>
+  <si>
+    <t>十八点</t>
+  </si>
+  <si>
+    <t>十九点</t>
+  </si>
+  <si>
+    <t>二十点</t>
+  </si>
+  <si>
+    <t>二十一点</t>
+  </si>
+  <si>
+    <t>二十二点</t>
+  </si>
+  <si>
+    <t>二十三点</t>
+  </si>
+  <si>
+    <t>零分</t>
+  </si>
+  <si>
+    <t>零分钟</t>
+  </si>
+  <si>
+    <t>一分</t>
+  </si>
+  <si>
+    <t>一分钟</t>
+  </si>
+  <si>
+    <t>二分</t>
+  </si>
+  <si>
+    <t>二分钟</t>
+  </si>
+  <si>
+    <t>两分</t>
+  </si>
+  <si>
+    <t>两分钟</t>
+  </si>
+  <si>
+    <t>三分</t>
+  </si>
+  <si>
+    <t>三分钟</t>
+  </si>
+  <si>
+    <t>四分</t>
+  </si>
+  <si>
+    <t>四分钟</t>
+  </si>
+  <si>
+    <t>五分</t>
+  </si>
+  <si>
+    <t>五分钟</t>
+  </si>
+  <si>
+    <t>六分</t>
+  </si>
+  <si>
+    <t>六分钟</t>
+  </si>
+  <si>
+    <t>七分</t>
+  </si>
+  <si>
+    <t>七分钟</t>
+  </si>
+  <si>
+    <t>八分</t>
+  </si>
+  <si>
+    <t>八分钟</t>
+  </si>
+  <si>
+    <t>九分</t>
+  </si>
+  <si>
+    <t>九分钟</t>
+  </si>
+  <si>
+    <t>十分</t>
+  </si>
+  <si>
+    <t>十分钟</t>
+  </si>
+  <si>
+    <t>十一分</t>
+  </si>
+  <si>
+    <t>十一分钟</t>
+  </si>
+  <si>
+    <t>十二分</t>
+  </si>
+  <si>
+    <t>十二分钟</t>
+  </si>
+  <si>
+    <t>十三分</t>
+  </si>
+  <si>
+    <t>十三分钟</t>
+  </si>
+  <si>
+    <t>十四分</t>
+  </si>
+  <si>
+    <t>十四分钟</t>
+  </si>
+  <si>
+    <t>十五分</t>
+  </si>
+  <si>
+    <t>十五分钟</t>
+  </si>
+  <si>
+    <t>十六分</t>
+  </si>
+  <si>
+    <t>十六分钟</t>
+  </si>
+  <si>
+    <t>十七分</t>
+  </si>
+  <si>
+    <t>十七分钟</t>
+  </si>
+  <si>
+    <t>十八分</t>
+  </si>
+  <si>
+    <t>十八分钟</t>
+  </si>
+  <si>
+    <t>十九分</t>
+  </si>
+  <si>
+    <t>十九分钟</t>
+  </si>
+  <si>
+    <t>二十分</t>
+  </si>
+  <si>
+    <t>二十分钟</t>
+  </si>
+  <si>
+    <t>二十一分</t>
+  </si>
+  <si>
+    <t>二十一分钟</t>
+  </si>
+  <si>
+    <t>二十二分</t>
+  </si>
+  <si>
+    <t>二十二分钟</t>
+  </si>
+  <si>
+    <t>二十三分</t>
+  </si>
+  <si>
+    <t>二十三分钟</t>
+  </si>
+  <si>
+    <t>二十四分</t>
+  </si>
+  <si>
+    <t>二十四分钟</t>
+  </si>
+  <si>
+    <t>二十五分</t>
+  </si>
+  <si>
+    <t>二十五分钟</t>
+  </si>
+  <si>
+    <t>二十六分</t>
+  </si>
+  <si>
+    <t>二十六分钟</t>
+  </si>
+  <si>
+    <t>二十七分</t>
+  </si>
+  <si>
+    <t>二十七分钟</t>
+  </si>
+  <si>
+    <t>二十八分</t>
+  </si>
+  <si>
+    <t>二十八分钟</t>
+  </si>
+  <si>
+    <t>二十九分</t>
+  </si>
+  <si>
+    <t>二十九分钟</t>
+  </si>
+  <si>
+    <t>三十分</t>
+  </si>
+  <si>
+    <t>三十分钟</t>
+  </si>
+  <si>
+    <t>三十一分</t>
+  </si>
+  <si>
+    <t>三十一分钟</t>
+  </si>
+  <si>
+    <t>三十二分</t>
+  </si>
+  <si>
+    <t>三十二分钟</t>
+  </si>
+  <si>
+    <t>三十三分</t>
+  </si>
+  <si>
+    <t>三十三分钟</t>
+  </si>
+  <si>
+    <t>三十四分</t>
+  </si>
+  <si>
+    <t>三十四分钟</t>
+  </si>
+  <si>
+    <t>三十五分</t>
+  </si>
+  <si>
+    <t>三十五分钟</t>
+  </si>
+  <si>
+    <t>三十六分</t>
+  </si>
+  <si>
+    <t>三十六分钟</t>
+  </si>
+  <si>
+    <t>三十七分</t>
+  </si>
+  <si>
+    <t>三十七分钟</t>
+  </si>
+  <si>
+    <t>三十八分</t>
+  </si>
+  <si>
+    <t>三十八分钟</t>
+  </si>
+  <si>
+    <t>三十九分</t>
+  </si>
+  <si>
+    <t>三十九分钟</t>
+  </si>
+  <si>
+    <t>四十分</t>
+  </si>
+  <si>
+    <t>四十分钟</t>
+  </si>
+  <si>
+    <t>四十一分</t>
+  </si>
+  <si>
+    <t>四十一分钟</t>
+  </si>
+  <si>
+    <t>四十二分</t>
+  </si>
+  <si>
+    <t>四十二分钟</t>
+  </si>
+  <si>
+    <t>四十三分</t>
+  </si>
+  <si>
+    <t>四十三分钟</t>
+  </si>
+  <si>
+    <t>四十四分</t>
+  </si>
+  <si>
+    <t>四十四分钟</t>
+  </si>
+  <si>
+    <t>四十五分</t>
+  </si>
+  <si>
+    <t>四十五分钟</t>
+  </si>
+  <si>
+    <t>四十六分</t>
+  </si>
+  <si>
+    <t>四十六分钟</t>
+  </si>
+  <si>
+    <t>四十七分</t>
+  </si>
+  <si>
+    <t>四十七分钟</t>
+  </si>
+  <si>
+    <t>四十八分</t>
+  </si>
+  <si>
+    <t>四十八分钟</t>
+  </si>
+  <si>
+    <t>四十九分</t>
+  </si>
+  <si>
+    <t>四十九分钟</t>
+  </si>
+  <si>
+    <t>五十分</t>
+  </si>
+  <si>
+    <t>五十分钟</t>
+  </si>
+  <si>
+    <t>五十一分</t>
+  </si>
+  <si>
+    <t>五十一分钟</t>
+  </si>
+  <si>
+    <t>五十二分</t>
+  </si>
+  <si>
+    <t>五十二分钟</t>
+  </si>
+  <si>
+    <t>五十三分</t>
+  </si>
+  <si>
+    <t>五十三分钟</t>
+  </si>
+  <si>
+    <t>五十四分</t>
+  </si>
+  <si>
+    <t>五十四分钟</t>
+  </si>
+  <si>
+    <t>五十五分</t>
+  </si>
+  <si>
+    <t>五十五分钟</t>
+  </si>
+  <si>
+    <t>五十六分</t>
+  </si>
+  <si>
+    <t>五十六分钟</t>
+  </si>
+  <si>
+    <t>五十七分</t>
+  </si>
+  <si>
+    <t>五十七分钟</t>
+  </si>
+  <si>
+    <t>五十八分</t>
+  </si>
+  <si>
+    <t>五十八分钟</t>
+  </si>
+  <si>
+    <t>五十九分</t>
+  </si>
+  <si>
+    <t>五十九分钟</t>
+  </si>
+  <si>
+    <t>时钟设定</t>
+  </si>
+  <si>
+    <t>时钟设置</t>
+  </si>
+  <si>
+    <t>设定时钟</t>
+  </si>
+  <si>
+    <t>设置时钟</t>
+  </si>
+  <si>
+    <t>喂食计划设定</t>
+  </si>
+  <si>
+    <t>喂食计划设置</t>
+  </si>
+  <si>
+    <t>设定喂食计划</t>
+  </si>
+  <si>
+    <t>设置喂食计划</t>
+  </si>
+  <si>
+    <t>设定第一餐</t>
+  </si>
+  <si>
+    <t>第一餐</t>
+  </si>
+  <si>
+    <t>设定第二餐</t>
+  </si>
+  <si>
+    <t>第二餐</t>
+  </si>
+  <si>
+    <t>设定第三餐</t>
+  </si>
+  <si>
+    <t>第三餐</t>
+  </si>
+  <si>
+    <t>设定第四餐</t>
+  </si>
+  <si>
+    <t>第四餐</t>
+  </si>
+  <si>
+    <t>设定第五餐</t>
+  </si>
+  <si>
+    <t>第五餐</t>
+  </si>
+  <si>
+    <t>设定第六餐</t>
+  </si>
+  <si>
+    <t>第六餐</t>
+  </si>
+  <si>
+    <t>一份</t>
+  </si>
+  <si>
+    <t>二份</t>
+  </si>
+  <si>
+    <t>三份</t>
+  </si>
+  <si>
+    <t>四份</t>
+  </si>
+  <si>
+    <t>五份</t>
+  </si>
+  <si>
+    <t>六份</t>
+  </si>
+  <si>
+    <t>七份</t>
+  </si>
+  <si>
+    <t>八份</t>
+  </si>
+  <si>
+    <t>九份</t>
+  </si>
+  <si>
+    <t>十份</t>
+  </si>
+  <si>
+    <t>十一份</t>
+  </si>
+  <si>
+    <t>十二份</t>
+  </si>
+  <si>
+    <t>查询计划</t>
+  </si>
+  <si>
+    <t>查询喂食计划</t>
+  </si>
+  <si>
+    <t>取消计划</t>
+  </si>
+  <si>
+    <t>取消喂食计划</t>
+  </si>
+  <si>
     <t>恢复出厂设置</t>
   </si>
   <si>
-    <t>打开灯光</t>
-  </si>
-  <si>
-    <t>关闭灯光</t>
-  </si>
-  <si>
-    <t>打开呼吸灯</t>
-  </si>
-  <si>
-    <t>打开炫彩等</t>
-  </si>
-  <si>
-    <t>灯光变色</t>
-  </si>
-  <si>
-    <t>灯光调亮</t>
-  </si>
-  <si>
-    <t>灯光调暗</t>
-  </si>
-  <si>
-    <t>灯光最亮</t>
-  </si>
-  <si>
-    <t>灯光最暗</t>
-  </si>
-  <si>
-    <t>打开交通灯</t>
-  </si>
-  <si>
-    <t>打开电机</t>
-  </si>
-  <si>
-    <t>关闭电机</t>
-  </si>
-  <si>
-    <t>电机停止</t>
-  </si>
-  <si>
-    <t>电机正转</t>
-  </si>
-  <si>
-    <t>电机反转</t>
-  </si>
-  <si>
-    <t>电机加速</t>
-  </si>
-  <si>
-    <t>电机减速</t>
-  </si>
-  <si>
-    <t>电机最快</t>
-  </si>
-  <si>
-    <t>电机最慢</t>
-  </si>
-  <si>
-    <t>放个屁吧</t>
-  </si>
-  <si>
-    <t>笑一笑</t>
-  </si>
-  <si>
-    <t>学狗叫</t>
-  </si>
-  <si>
-    <t>学鸡叫</t>
-  </si>
-  <si>
-    <t>学牛叫</t>
-  </si>
-  <si>
-    <t>学羊叫</t>
-  </si>
-  <si>
-    <t>定时十秒</t>
-  </si>
-  <si>
-    <t>定时三十秒</t>
-  </si>
-  <si>
-    <t>定时六十秒</t>
-  </si>
-  <si>
-    <t>定时一分钟</t>
-  </si>
-  <si>
-    <t>定时两分钟</t>
-  </si>
-  <si>
-    <t>添加空调</t>
-  </si>
-  <si>
-    <t>匹配空调</t>
-  </si>
-  <si>
-    <t>打开空调</t>
-  </si>
-  <si>
-    <t>关闭空调</t>
-  </si>
-  <si>
-    <t>空调高速风</t>
-  </si>
-  <si>
-    <t>空调中速风</t>
-  </si>
-  <si>
-    <t>空调低速风</t>
-  </si>
-  <si>
-    <t>空调自动风</t>
-  </si>
-  <si>
-    <t>停止扫风</t>
-  </si>
-  <si>
-    <t>关闭扫风</t>
-  </si>
-  <si>
-    <t>打开扫风</t>
-  </si>
-  <si>
-    <t>十六度</t>
-  </si>
-  <si>
-    <t>十七度</t>
-  </si>
-  <si>
-    <t>十八度</t>
-  </si>
-  <si>
-    <t>十九度</t>
-  </si>
-  <si>
-    <t>二十度</t>
-  </si>
-  <si>
-    <t>二十一度</t>
-  </si>
-  <si>
-    <t>二十二度</t>
-  </si>
-  <si>
-    <t>二十三度</t>
-  </si>
-  <si>
-    <t>二十四度</t>
-  </si>
-  <si>
-    <t>二十五度</t>
-  </si>
-  <si>
-    <t>二十六度</t>
-  </si>
-  <si>
-    <t>二十七度</t>
-  </si>
-  <si>
-    <t>二十八度</t>
-  </si>
-  <si>
-    <t>二十九度</t>
-  </si>
-  <si>
-    <t>三十度</t>
-  </si>
-  <si>
-    <t>制冷模式</t>
-  </si>
-  <si>
-    <t>制热模式</t>
-  </si>
-  <si>
-    <t>加热模式</t>
-  </si>
-  <si>
-    <t>送风模式</t>
-  </si>
-  <si>
-    <t>除湿模式</t>
-  </si>
-  <si>
-    <t>自动模式</t>
-  </si>
-  <si>
-    <t>打开睡眠模式</t>
-  </si>
-  <si>
-    <t>关闭睡眠模式</t>
-  </si>
-  <si>
-    <t>关闭节能模式</t>
-  </si>
-  <si>
-    <t>打开节能模式</t>
-  </si>
-  <si>
-    <t>打开辅热模式</t>
-  </si>
-  <si>
-    <t>关闭辅热模式</t>
-  </si>
-  <si>
-    <t>打开上下扫风</t>
-  </si>
-  <si>
-    <t>打开左右扫风</t>
-  </si>
-  <si>
-    <t>关闭上下扫风</t>
-  </si>
-  <si>
-    <t>关闭左右扫风</t>
-  </si>
-  <si>
-    <t>升高温度</t>
-  </si>
-  <si>
-    <t>调高温度</t>
-  </si>
-  <si>
-    <t>降低温度</t>
-  </si>
-  <si>
-    <t>调低温度</t>
-  </si>
-  <si>
-    <t>增大风速</t>
-  </si>
-  <si>
-    <t>减小风速</t>
-  </si>
-  <si>
-    <t>关闭屏显</t>
-  </si>
-  <si>
-    <t>打开屏显</t>
-  </si>
-  <si>
-    <t>取消定时</t>
-  </si>
-  <si>
-    <t>定时一小时</t>
-  </si>
-  <si>
-    <t>定时二小时</t>
-  </si>
-  <si>
-    <t>定时两小时</t>
-  </si>
-  <si>
-    <t>定时三小时</t>
-  </si>
-  <si>
-    <t>定时四小时</t>
-  </si>
-  <si>
-    <t>添加电视</t>
-  </si>
-  <si>
-    <t>匹配电视</t>
-  </si>
-  <si>
-    <t>打开电视</t>
-  </si>
-  <si>
-    <t>关闭电视</t>
-  </si>
-  <si>
-    <t>打开机顶盒</t>
-  </si>
-  <si>
-    <t>关闭机顶盒</t>
-  </si>
-  <si>
-    <t>信号源切换</t>
-  </si>
-  <si>
-    <t>打开菜单</t>
-  </si>
-  <si>
-    <t>菜单确认</t>
-  </si>
-  <si>
-    <t>菜单返回</t>
-  </si>
-  <si>
-    <t>上一频道</t>
-  </si>
-  <si>
-    <t>下一频道</t>
-  </si>
-  <si>
-    <t>增加电视音量</t>
-  </si>
-  <si>
-    <t>减小电视音量</t>
-  </si>
-  <si>
-    <t>电视静音</t>
-  </si>
-  <si>
-    <t>添加风扇</t>
-  </si>
-  <si>
-    <t>匹配风扇</t>
-  </si>
-  <si>
-    <t>打开风扇</t>
-  </si>
-  <si>
-    <t>关闭风扇</t>
-  </si>
-  <si>
-    <t>打开摇头</t>
-  </si>
-  <si>
-    <t>关闭摇头</t>
-  </si>
-  <si>
-    <t>风扇一档</t>
-  </si>
-  <si>
-    <t>风扇二档</t>
-  </si>
-  <si>
-    <t>风扇三档</t>
-  </si>
-  <si>
-    <t>打开白色</t>
-  </si>
-  <si>
-    <t>打开白光</t>
-  </si>
-  <si>
-    <t>打开蓝色</t>
-  </si>
-  <si>
-    <t>打开蓝光</t>
-  </si>
-  <si>
-    <t>打开黄色</t>
-  </si>
-  <si>
-    <t>打开黄光</t>
-  </si>
-  <si>
-    <t>打开绿色</t>
-  </si>
-  <si>
-    <t>打开青色</t>
-  </si>
-  <si>
-    <t>打开红色</t>
-  </si>
-  <si>
-    <t>打开紫色</t>
-  </si>
-  <si>
-    <t>打开橙色</t>
+    <t>进入语音喂食</t>
+  </si>
+  <si>
+    <t>出粮一份</t>
+  </si>
+  <si>
+    <t>喂食一份</t>
+  </si>
+  <si>
+    <t>出粮两份</t>
+  </si>
+  <si>
+    <t>喂食两份</t>
+  </si>
+  <si>
+    <t>出粮三份</t>
+  </si>
+  <si>
+    <t>喂食三份</t>
+  </si>
+  <si>
+    <t>出粮四份</t>
+  </si>
+  <si>
+    <t>喂食四份</t>
+  </si>
+  <si>
+    <t>出粮五份</t>
+  </si>
+  <si>
+    <t>喂食五份</t>
+  </si>
+  <si>
+    <t>出粮六份</t>
+  </si>
+  <si>
+    <t>喂食六份</t>
+  </si>
+  <si>
+    <t>出粮七份</t>
+  </si>
+  <si>
+    <t>喂食七份</t>
+  </si>
+  <si>
+    <t>出粮八份</t>
+  </si>
+  <si>
+    <t>喂食八份</t>
+  </si>
+  <si>
+    <t>出粮九份</t>
+  </si>
+  <si>
+    <t>喂食九份</t>
+  </si>
+  <si>
+    <t>出粮十份</t>
+  </si>
+  <si>
+    <t>喂食十份</t>
+  </si>
+  <si>
+    <t>出粮十一份</t>
+  </si>
+  <si>
+    <t>喂食十一份</t>
+  </si>
+  <si>
+    <t>出粮十二份</t>
+  </si>
+  <si>
+    <t>喂食十二份</t>
+  </si>
+  <si>
+    <t>最大音量</t>
+  </si>
+  <si>
+    <t>最小音量</t>
+  </si>
+  <si>
+    <t>调大音量</t>
   </si>
   <si>
     <t>增大音量</t>
   </si>
   <si>
-    <t>增加音量</t>
-  </si>
-  <si>
-    <t>大声点</t>
-  </si>
-  <si>
-    <t>大点声</t>
+    <t>调小音量</t>
   </si>
   <si>
     <t>减小音量</t>
   </si>
   <si>
-    <t>减少音量</t>
-  </si>
-  <si>
-    <t>小声点</t>
-  </si>
-  <si>
-    <t>小点声</t>
-  </si>
-  <si>
-    <t>电机十秒后打开</t>
-  </si>
-  <si>
-    <t>电机三十秒后打开</t>
-  </si>
-  <si>
-    <t>电机六十秒后打开</t>
-  </si>
-  <si>
-    <t>电机一分钟后打开</t>
-  </si>
-  <si>
-    <t>电机两分钟后打开</t>
-  </si>
-  <si>
-    <t>电机十秒后关闭</t>
-  </si>
-  <si>
-    <t>电机三十秒后关闭</t>
-  </si>
-  <si>
-    <t>电机六十秒后关闭</t>
-  </si>
-  <si>
-    <t>电机一分钟后关闭</t>
-  </si>
-  <si>
-    <t>电机两分钟后关闭</t>
-  </si>
-  <si>
-    <t>灯光十秒后打开</t>
-  </si>
-  <si>
-    <t>灯光三十秒后打开</t>
-  </si>
-  <si>
-    <t>灯光六十秒后打开</t>
-  </si>
-  <si>
-    <t>灯光一分钟后打开</t>
-  </si>
-  <si>
-    <t>灯光两分钟后打开</t>
-  </si>
-  <si>
-    <t>灯光十秒后关闭</t>
-  </si>
-  <si>
-    <t>灯光三十秒后关闭</t>
-  </si>
-  <si>
-    <t>灯光六十秒后关闭</t>
-  </si>
-  <si>
-    <t>灯光一分钟后关闭</t>
-  </si>
-  <si>
-    <t>灯光两分钟后关闭</t>
+    <t>查询第一餐</t>
+  </si>
+  <si>
+    <t>查询第二餐</t>
+  </si>
+  <si>
+    <t>查询第三餐</t>
+  </si>
+  <si>
+    <t>查询第四餐</t>
+  </si>
+  <si>
+    <t>查询第五餐</t>
+  </si>
+  <si>
+    <t>查询第六餐</t>
+  </si>
+  <si>
+    <t>取消第一餐</t>
+  </si>
+  <si>
+    <t>取消第二餐</t>
+  </si>
+  <si>
+    <t>取消第三餐</t>
+  </si>
+  <si>
+    <t>取消第四餐</t>
+  </si>
+  <si>
+    <t>取消第五餐</t>
+  </si>
+  <si>
+    <t>取消第六餐</t>
   </si>
   <si>
     <t>学习唤醒词</t>
@@ -1591,10 +1828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C345"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1649,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1981,7 +2218,7 @@
     </row>
     <row r="35" s="4" customFormat="1" spans="1:3">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
@@ -1992,7 +2229,7 @@
     </row>
     <row r="36" s="4" customFormat="1" spans="1:3">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>38</v>
@@ -2003,7 +2240,7 @@
     </row>
     <row r="37" s="4" customFormat="1" spans="1:3">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>39</v>
@@ -2014,7 +2251,7 @@
     </row>
     <row r="38" s="4" customFormat="1" spans="1:3">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -2025,7 +2262,7 @@
     </row>
     <row r="39" s="4" customFormat="1" spans="1:3">
       <c r="A39" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>41</v>
@@ -2036,7 +2273,7 @@
     </row>
     <row r="40" s="4" customFormat="1" spans="1:3">
       <c r="A40" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>42</v>
@@ -2047,7 +2284,7 @@
     </row>
     <row r="41" s="4" customFormat="1" spans="1:3">
       <c r="A41" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>43</v>
@@ -2058,7 +2295,7 @@
     </row>
     <row r="42" s="4" customFormat="1" spans="1:3">
       <c r="A42" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>44</v>
@@ -2069,7 +2306,7 @@
     </row>
     <row r="43" s="4" customFormat="1" spans="1:3">
       <c r="A43" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>45</v>
@@ -2080,7 +2317,7 @@
     </row>
     <row r="44" s="4" customFormat="1" spans="1:3">
       <c r="A44" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>46</v>
@@ -2091,7 +2328,7 @@
     </row>
     <row r="45" s="4" customFormat="1" spans="1:3">
       <c r="A45" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>47</v>
@@ -2102,7 +2339,7 @@
     </row>
     <row r="46" s="4" customFormat="1" spans="1:3">
       <c r="A46" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -2113,7 +2350,7 @@
     </row>
     <row r="47" s="4" customFormat="1" spans="1:3">
       <c r="A47" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>49</v>
@@ -2124,7 +2361,7 @@
     </row>
     <row r="48" s="4" customFormat="1" spans="1:3">
       <c r="A48" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>50</v>
@@ -2135,7 +2372,7 @@
     </row>
     <row r="49" s="4" customFormat="1" spans="1:3">
       <c r="A49" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>51</v>
@@ -2146,7 +2383,7 @@
     </row>
     <row r="50" s="4" customFormat="1" spans="1:3">
       <c r="A50" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>52</v>
@@ -2157,7 +2394,7 @@
     </row>
     <row r="51" s="4" customFormat="1" spans="1:3">
       <c r="A51" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>53</v>
@@ -2168,7 +2405,7 @@
     </row>
     <row r="52" s="4" customFormat="1" spans="1:3">
       <c r="A52" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>54</v>
@@ -2179,7 +2416,7 @@
     </row>
     <row r="53" s="4" customFormat="1" spans="1:3">
       <c r="A53" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>55</v>
@@ -2190,7 +2427,7 @@
     </row>
     <row r="54" s="4" customFormat="1" spans="1:3">
       <c r="A54" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -2201,7 +2438,7 @@
     </row>
     <row r="55" s="4" customFormat="1" spans="1:3">
       <c r="A55" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>57</v>
@@ -2212,7 +2449,7 @@
     </row>
     <row r="56" s="4" customFormat="1" spans="1:3">
       <c r="A56" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>58</v>
@@ -2223,7 +2460,7 @@
     </row>
     <row r="57" s="4" customFormat="1" spans="1:3">
       <c r="A57" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>59</v>
@@ -2234,7 +2471,7 @@
     </row>
     <row r="58" s="4" customFormat="1" spans="1:3">
       <c r="A58" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>60</v>
@@ -2245,7 +2482,7 @@
     </row>
     <row r="59" s="4" customFormat="1" spans="1:3">
       <c r="A59" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>61</v>
@@ -2256,7 +2493,7 @@
     </row>
     <row r="60" s="4" customFormat="1" spans="1:3">
       <c r="A60" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>62</v>
@@ -2267,7 +2504,7 @@
     </row>
     <row r="61" s="4" customFormat="1" spans="1:3">
       <c r="A61" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>63</v>
@@ -2278,7 +2515,7 @@
     </row>
     <row r="62" s="4" customFormat="1" spans="1:3">
       <c r="A62" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>64</v>
@@ -2289,7 +2526,7 @@
     </row>
     <row r="63" s="4" customFormat="1" spans="1:3">
       <c r="A63" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>65</v>
@@ -2300,7 +2537,7 @@
     </row>
     <row r="64" s="4" customFormat="1" spans="1:3">
       <c r="A64" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>66</v>
@@ -2311,7 +2548,7 @@
     </row>
     <row r="65" s="4" customFormat="1" spans="1:3">
       <c r="A65" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>67</v>
@@ -2322,7 +2559,7 @@
     </row>
     <row r="66" s="4" customFormat="1" spans="1:3">
       <c r="A66" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>68</v>
@@ -2333,7 +2570,7 @@
     </row>
     <row r="67" s="4" customFormat="1" spans="1:3">
       <c r="A67" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>69</v>
@@ -2344,7 +2581,7 @@
     </row>
     <row r="68" s="4" customFormat="1" spans="1:3">
       <c r="A68" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>70</v>
@@ -2355,7 +2592,7 @@
     </row>
     <row r="69" s="4" customFormat="1" spans="1:3">
       <c r="A69" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>71</v>
@@ -2366,7 +2603,7 @@
     </row>
     <row r="70" s="4" customFormat="1" spans="1:3">
       <c r="A70" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>72</v>
@@ -2377,7 +2614,7 @@
     </row>
     <row r="71" s="4" customFormat="1" spans="1:3">
       <c r="A71" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>73</v>
@@ -2388,7 +2625,7 @@
     </row>
     <row r="72" s="4" customFormat="1" spans="1:3">
       <c r="A72" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>74</v>
@@ -2399,7 +2636,7 @@
     </row>
     <row r="73" s="4" customFormat="1" spans="1:3">
       <c r="A73" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>75</v>
@@ -2410,7 +2647,7 @@
     </row>
     <row r="74" s="4" customFormat="1" spans="1:3">
       <c r="A74" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>76</v>
@@ -2421,7 +2658,7 @@
     </row>
     <row r="75" s="4" customFormat="1" spans="1:3">
       <c r="A75" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>77</v>
@@ -2432,7 +2669,7 @@
     </row>
     <row r="76" s="4" customFormat="1" spans="1:3">
       <c r="A76" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>78</v>
@@ -2443,7 +2680,7 @@
     </row>
     <row r="77" s="4" customFormat="1" spans="1:3">
       <c r="A77" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>79</v>
@@ -2454,7 +2691,7 @@
     </row>
     <row r="78" s="4" customFormat="1" spans="1:3">
       <c r="A78" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>80</v>
@@ -2465,7 +2702,7 @@
     </row>
     <row r="79" s="4" customFormat="1" spans="1:3">
       <c r="A79" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>81</v>
@@ -2476,7 +2713,7 @@
     </row>
     <row r="80" s="4" customFormat="1" spans="1:3">
       <c r="A80" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>82</v>
@@ -2487,7 +2724,7 @@
     </row>
     <row r="81" s="4" customFormat="1" spans="1:3">
       <c r="A81" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>83</v>
@@ -2498,7 +2735,7 @@
     </row>
     <row r="82" s="4" customFormat="1" spans="1:3">
       <c r="A82" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>84</v>
@@ -2509,7 +2746,7 @@
     </row>
     <row r="83" s="4" customFormat="1" spans="1:3">
       <c r="A83" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>85</v>
@@ -2520,7 +2757,7 @@
     </row>
     <row r="84" s="4" customFormat="1" spans="1:3">
       <c r="A84" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>86</v>
@@ -2531,7 +2768,7 @@
     </row>
     <row r="85" s="4" customFormat="1" spans="1:3">
       <c r="A85" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>87</v>
@@ -2542,7 +2779,7 @@
     </row>
     <row r="86" s="4" customFormat="1" spans="1:3">
       <c r="A86" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>88</v>
@@ -2553,7 +2790,7 @@
     </row>
     <row r="87" s="4" customFormat="1" spans="1:3">
       <c r="A87" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>89</v>
@@ -2564,7 +2801,7 @@
     </row>
     <row r="88" s="4" customFormat="1" spans="1:3">
       <c r="A88" s="5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>90</v>
@@ -2575,7 +2812,7 @@
     </row>
     <row r="89" s="4" customFormat="1" spans="1:3">
       <c r="A89" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>91</v>
@@ -2586,7 +2823,7 @@
     </row>
     <row r="90" s="4" customFormat="1" spans="1:3">
       <c r="A90" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>92</v>
@@ -2597,7 +2834,7 @@
     </row>
     <row r="91" s="4" customFormat="1" spans="1:3">
       <c r="A91" s="5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>93</v>
@@ -2608,7 +2845,7 @@
     </row>
     <row r="92" s="4" customFormat="1" spans="1:3">
       <c r="A92" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>94</v>
@@ -2619,7 +2856,7 @@
     </row>
     <row r="93" s="4" customFormat="1" spans="1:3">
       <c r="A93" s="5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>95</v>
@@ -2630,7 +2867,7 @@
     </row>
     <row r="94" s="4" customFormat="1" spans="1:3">
       <c r="A94" s="5">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>96</v>
@@ -2641,7 +2878,7 @@
     </row>
     <row r="95" s="4" customFormat="1" spans="1:3">
       <c r="A95" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>97</v>
@@ -2652,7 +2889,7 @@
     </row>
     <row r="96" s="4" customFormat="1" spans="1:3">
       <c r="A96" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>98</v>
@@ -2663,7 +2900,7 @@
     </row>
     <row r="97" s="4" customFormat="1" spans="1:3">
       <c r="A97" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>99</v>
@@ -2674,7 +2911,7 @@
     </row>
     <row r="98" s="4" customFormat="1" spans="1:3">
       <c r="A98" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>100</v>
@@ -2685,7 +2922,7 @@
     </row>
     <row r="99" s="4" customFormat="1" spans="1:3">
       <c r="A99" s="5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>101</v>
@@ -2696,7 +2933,7 @@
     </row>
     <row r="100" s="4" customFormat="1" spans="1:3">
       <c r="A100" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>102</v>
@@ -2707,7 +2944,7 @@
     </row>
     <row r="101" s="4" customFormat="1" spans="1:3">
       <c r="A101" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>103</v>
@@ -2718,7 +2955,7 @@
     </row>
     <row r="102" s="4" customFormat="1" spans="1:3">
       <c r="A102" s="5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>104</v>
@@ -2729,7 +2966,7 @@
     </row>
     <row r="103" s="4" customFormat="1" spans="1:3">
       <c r="A103" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>105</v>
@@ -2740,7 +2977,7 @@
     </row>
     <row r="104" s="4" customFormat="1" spans="1:3">
       <c r="A104" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>106</v>
@@ -2751,7 +2988,7 @@
     </row>
     <row r="105" s="4" customFormat="1" spans="1:3">
       <c r="A105" s="5">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>107</v>
@@ -2762,7 +2999,7 @@
     </row>
     <row r="106" s="4" customFormat="1" spans="1:3">
       <c r="A106" s="5">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>108</v>
@@ -2773,7 +3010,7 @@
     </row>
     <row r="107" s="4" customFormat="1" spans="1:3">
       <c r="A107" s="5">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>109</v>
@@ -2784,7 +3021,7 @@
     </row>
     <row r="108" s="4" customFormat="1" spans="1:3">
       <c r="A108" s="5">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>110</v>
@@ -2795,7 +3032,7 @@
     </row>
     <row r="109" s="4" customFormat="1" spans="1:3">
       <c r="A109" s="5">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>111</v>
@@ -2806,7 +3043,7 @@
     </row>
     <row r="110" s="4" customFormat="1" spans="1:3">
       <c r="A110" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
@@ -2817,7 +3054,7 @@
     </row>
     <row r="111" s="4" customFormat="1" spans="1:3">
       <c r="A111" s="5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>113</v>
@@ -2828,7 +3065,7 @@
     </row>
     <row r="112" s="4" customFormat="1" spans="1:3">
       <c r="A112" s="5">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>114</v>
@@ -2839,7 +3076,7 @@
     </row>
     <row r="113" s="4" customFormat="1" spans="1:3">
       <c r="A113" s="5">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>115</v>
@@ -2850,7 +3087,7 @@
     </row>
     <row r="114" s="4" customFormat="1" spans="1:3">
       <c r="A114" s="5">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>116</v>
@@ -2861,7 +3098,7 @@
     </row>
     <row r="115" s="4" customFormat="1" spans="1:3">
       <c r="A115" s="5">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>117</v>
@@ -2872,7 +3109,7 @@
     </row>
     <row r="116" s="4" customFormat="1" spans="1:3">
       <c r="A116" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>118</v>
@@ -2883,7 +3120,7 @@
     </row>
     <row r="117" s="4" customFormat="1" spans="1:3">
       <c r="A117" s="5">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>119</v>
@@ -2894,7 +3131,7 @@
     </row>
     <row r="118" s="4" customFormat="1" spans="1:3">
       <c r="A118" s="5">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>120</v>
@@ -2905,7 +3142,7 @@
     </row>
     <row r="119" s="4" customFormat="1" spans="1:3">
       <c r="A119" s="5">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>121</v>
@@ -2916,7 +3153,7 @@
     </row>
     <row r="120" s="4" customFormat="1" spans="1:3">
       <c r="A120" s="5">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>122</v>
@@ -2927,7 +3164,7 @@
     </row>
     <row r="121" s="4" customFormat="1" spans="1:3">
       <c r="A121" s="5">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>123</v>
@@ -2938,7 +3175,7 @@
     </row>
     <row r="122" s="4" customFormat="1" spans="1:3">
       <c r="A122" s="5">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>124</v>
@@ -2949,7 +3186,7 @@
     </row>
     <row r="123" s="4" customFormat="1" spans="1:3">
       <c r="A123" s="5">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>125</v>
@@ -2960,7 +3197,7 @@
     </row>
     <row r="124" s="4" customFormat="1" spans="1:3">
       <c r="A124" s="5">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>126</v>
@@ -2971,7 +3208,7 @@
     </row>
     <row r="125" s="4" customFormat="1" spans="1:3">
       <c r="A125" s="5">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>127</v>
@@ -2982,7 +3219,7 @@
     </row>
     <row r="126" s="4" customFormat="1" spans="1:3">
       <c r="A126" s="5">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>128</v>
@@ -2993,7 +3230,7 @@
     </row>
     <row r="127" s="4" customFormat="1" spans="1:3">
       <c r="A127" s="5">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>129</v>
@@ -3004,7 +3241,7 @@
     </row>
     <row r="128" s="4" customFormat="1" spans="1:3">
       <c r="A128" s="5">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>130</v>
@@ -3015,7 +3252,7 @@
     </row>
     <row r="129" s="4" customFormat="1" spans="1:3">
       <c r="A129" s="5">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>131</v>
@@ -3026,7 +3263,7 @@
     </row>
     <row r="130" s="4" customFormat="1" spans="1:3">
       <c r="A130" s="5">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>132</v>
@@ -3037,7 +3274,7 @@
     </row>
     <row r="131" s="4" customFormat="1" spans="1:3">
       <c r="A131" s="5">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>133</v>
@@ -3048,7 +3285,7 @@
     </row>
     <row r="132" s="4" customFormat="1" spans="1:3">
       <c r="A132" s="5">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>134</v>
@@ -3059,7 +3296,7 @@
     </row>
     <row r="133" s="4" customFormat="1" spans="1:3">
       <c r="A133" s="5">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>135</v>
@@ -3070,7 +3307,7 @@
     </row>
     <row r="134" s="4" customFormat="1" spans="1:3">
       <c r="A134" s="5">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>136</v>
@@ -3081,7 +3318,7 @@
     </row>
     <row r="135" s="4" customFormat="1" spans="1:3">
       <c r="A135" s="5">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>137</v>
@@ -3092,7 +3329,7 @@
     </row>
     <row r="136" s="4" customFormat="1" spans="1:3">
       <c r="A136" s="5">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>138</v>
@@ -3103,7 +3340,7 @@
     </row>
     <row r="137" s="4" customFormat="1" spans="1:3">
       <c r="A137" s="5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>139</v>
@@ -3114,7 +3351,7 @@
     </row>
     <row r="138" s="4" customFormat="1" spans="1:3">
       <c r="A138" s="5">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>140</v>
@@ -3125,7 +3362,7 @@
     </row>
     <row r="139" s="4" customFormat="1" spans="1:3">
       <c r="A139" s="5">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>141</v>
@@ -3136,7 +3373,7 @@
     </row>
     <row r="140" s="4" customFormat="1" spans="1:3">
       <c r="A140" s="5">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>142</v>
@@ -3147,7 +3384,7 @@
     </row>
     <row r="141" s="4" customFormat="1" spans="1:3">
       <c r="A141" s="5">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>143</v>
@@ -3158,7 +3395,7 @@
     </row>
     <row r="142" s="4" customFormat="1" spans="1:3">
       <c r="A142" s="5">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>144</v>
@@ -3169,7 +3406,7 @@
     </row>
     <row r="143" s="4" customFormat="1" spans="1:3">
       <c r="A143" s="5">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>145</v>
@@ -3180,7 +3417,7 @@
     </row>
     <row r="144" s="4" customFormat="1" spans="1:3">
       <c r="A144" s="5">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>146</v>
@@ -3191,7 +3428,7 @@
     </row>
     <row r="145" s="4" customFormat="1" spans="1:3">
       <c r="A145" s="5">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>147</v>
@@ -3202,7 +3439,7 @@
     </row>
     <row r="146" s="4" customFormat="1" spans="1:3">
       <c r="A146" s="5">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>148</v>
@@ -3213,7 +3450,7 @@
     </row>
     <row r="147" s="4" customFormat="1" spans="1:3">
       <c r="A147" s="5">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>149</v>
@@ -3224,7 +3461,7 @@
     </row>
     <row r="148" s="4" customFormat="1" spans="1:3">
       <c r="A148" s="5">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>150</v>
@@ -3235,7 +3472,7 @@
     </row>
     <row r="149" s="4" customFormat="1" spans="1:3">
       <c r="A149" s="5">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>151</v>
@@ -3246,7 +3483,7 @@
     </row>
     <row r="150" s="4" customFormat="1" spans="1:3">
       <c r="A150" s="5">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>152</v>
@@ -3257,7 +3494,7 @@
     </row>
     <row r="151" s="4" customFormat="1" spans="1:3">
       <c r="A151" s="5">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>153</v>
@@ -3268,7 +3505,7 @@
     </row>
     <row r="152" s="4" customFormat="1" spans="1:3">
       <c r="A152" s="5">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>154</v>
@@ -3279,7 +3516,7 @@
     </row>
     <row r="153" s="4" customFormat="1" spans="1:3">
       <c r="A153" s="5">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>155</v>
@@ -3290,7 +3527,7 @@
     </row>
     <row r="154" s="4" customFormat="1" spans="1:3">
       <c r="A154" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>156</v>
@@ -3299,200 +3536,877 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" s="4" customFormat="1" spans="1:1">
-      <c r="A155" s="5"/>
-    </row>
-    <row r="156" s="4" customFormat="1" spans="1:1">
-      <c r="A156" s="5"/>
-    </row>
-    <row r="157" s="4" customFormat="1" spans="1:1">
-      <c r="A157" s="5"/>
-    </row>
-    <row r="158" s="4" customFormat="1" spans="1:1">
-      <c r="A158" s="5"/>
-    </row>
-    <row r="159" s="4" customFormat="1" spans="1:1">
-      <c r="A159" s="5"/>
-    </row>
-    <row r="160" s="4" customFormat="1" spans="1:1">
-      <c r="A160" s="5"/>
-    </row>
-    <row r="161" s="4" customFormat="1" spans="1:1">
-      <c r="A161" s="5"/>
-    </row>
-    <row r="162" s="4" customFormat="1" spans="1:1">
-      <c r="A162" s="5"/>
-    </row>
-    <row r="163" s="4" customFormat="1" spans="1:1">
-      <c r="A163" s="5"/>
-    </row>
-    <row r="164" s="4" customFormat="1" spans="1:1">
-      <c r="A164" s="5"/>
-    </row>
-    <row r="165" s="4" customFormat="1" spans="1:1">
-      <c r="A165" s="5"/>
-    </row>
-    <row r="166" s="4" customFormat="1" spans="1:1">
-      <c r="A166" s="5"/>
-    </row>
-    <row r="167" s="4" customFormat="1" spans="1:1">
-      <c r="A167" s="5"/>
-    </row>
-    <row r="168" s="4" customFormat="1" spans="1:1">
-      <c r="A168" s="5"/>
-    </row>
-    <row r="169" s="4" customFormat="1" spans="1:1">
-      <c r="A169" s="5"/>
-    </row>
-    <row r="170" s="4" customFormat="1" spans="1:1">
-      <c r="A170" s="5"/>
-    </row>
-    <row r="171" s="4" customFormat="1" spans="1:1">
-      <c r="A171" s="5"/>
-    </row>
-    <row r="172" s="4" customFormat="1" spans="1:1">
-      <c r="A172" s="5"/>
-    </row>
-    <row r="173" s="4" customFormat="1" spans="1:1">
-      <c r="A173" s="5"/>
-    </row>
-    <row r="174" s="4" customFormat="1" spans="1:1">
-      <c r="A174" s="5"/>
-    </row>
-    <row r="175" s="4" customFormat="1" spans="1:1">
-      <c r="A175" s="5"/>
-    </row>
-    <row r="176" s="4" customFormat="1" spans="1:1">
-      <c r="A176" s="5"/>
-    </row>
-    <row r="177" s="4" customFormat="1" spans="1:1">
-      <c r="A177" s="5"/>
-    </row>
-    <row r="178" s="4" customFormat="1" spans="1:1">
-      <c r="A178" s="5"/>
-    </row>
-    <row r="179" s="4" customFormat="1" spans="1:1">
-      <c r="A179" s="5"/>
-    </row>
-    <row r="180" s="4" customFormat="1" spans="1:1">
-      <c r="A180" s="5"/>
-    </row>
-    <row r="181" s="4" customFormat="1" spans="1:1">
-      <c r="A181" s="5"/>
-    </row>
-    <row r="182" s="4" customFormat="1" spans="1:1">
-      <c r="A182" s="5"/>
-    </row>
-    <row r="183" s="4" customFormat="1" spans="1:1">
-      <c r="A183" s="5"/>
-    </row>
-    <row r="184" s="4" customFormat="1" spans="1:1">
-      <c r="A184" s="5"/>
-    </row>
-    <row r="185" s="4" customFormat="1" spans="1:1">
-      <c r="A185" s="5"/>
-    </row>
-    <row r="186" s="4" customFormat="1" spans="1:1">
-      <c r="A186" s="5"/>
-    </row>
-    <row r="187" s="4" customFormat="1" spans="1:1">
-      <c r="A187" s="5"/>
-    </row>
-    <row r="188" s="4" customFormat="1" spans="1:1">
-      <c r="A188" s="5"/>
-    </row>
-    <row r="189" s="4" customFormat="1" spans="1:1">
-      <c r="A189" s="5"/>
-    </row>
-    <row r="190" s="4" customFormat="1" spans="1:1">
-      <c r="A190" s="5"/>
-    </row>
-    <row r="191" s="4" customFormat="1" spans="1:1">
-      <c r="A191" s="5"/>
-    </row>
-    <row r="192" s="4" customFormat="1" spans="1:1">
-      <c r="A192" s="5"/>
-    </row>
-    <row r="193" s="4" customFormat="1" spans="1:1">
-      <c r="A193" s="5"/>
-    </row>
-    <row r="194" s="4" customFormat="1" spans="1:1">
-      <c r="A194" s="5"/>
-    </row>
-    <row r="195" s="4" customFormat="1" spans="1:1">
-      <c r="A195" s="5"/>
-    </row>
-    <row r="196" s="4" customFormat="1" spans="1:1">
-      <c r="A196" s="5"/>
-    </row>
-    <row r="197" s="4" customFormat="1" spans="1:1">
-      <c r="A197" s="5"/>
-    </row>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1" spans="2:2">
-      <c r="B237"/>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238"/>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239"/>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240"/>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242"/>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244"/>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245"/>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246"/>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247"/>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248"/>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249"/>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250"/>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251"/>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252"/>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253"/>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254"/>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255"/>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256"/>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257"/>
-    </row>
-    <row r="258" spans="2:2">
+    <row r="155" s="4" customFormat="1" spans="1:3">
+      <c r="A155" s="5">
+        <v>151</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" s="4" customFormat="1" spans="1:3">
+      <c r="A156" s="5">
+        <v>152</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" s="4" customFormat="1" spans="1:3">
+      <c r="A157" s="5">
+        <v>152</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" s="4" customFormat="1" spans="1:3">
+      <c r="A158" s="5">
+        <v>152</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" s="4" customFormat="1" spans="1:3">
+      <c r="A159" s="5">
+        <v>152</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" s="4" customFormat="1" spans="1:3">
+      <c r="A160" s="5">
+        <v>153</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" s="4" customFormat="1" spans="1:3">
+      <c r="A161" s="5">
+        <v>154</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" s="4" customFormat="1" spans="1:3">
+      <c r="A162" s="5">
+        <v>155</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" s="4" customFormat="1" spans="1:3">
+      <c r="A163" s="5">
+        <v>156</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" s="4" customFormat="1" spans="1:3">
+      <c r="A164" s="5">
+        <v>157</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" s="4" customFormat="1" spans="1:3">
+      <c r="A165" s="5">
+        <v>158</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" s="4" customFormat="1" spans="1:3">
+      <c r="A166" s="5">
+        <v>159</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" s="4" customFormat="1" spans="1:3">
+      <c r="A167" s="5">
+        <v>160</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" s="4" customFormat="1" spans="1:3">
+      <c r="A168" s="5">
+        <v>161</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1" spans="1:3">
+      <c r="A169" s="5">
+        <v>162</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" s="4" customFormat="1" spans="1:3">
+      <c r="A170" s="5">
+        <v>163</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" s="4" customFormat="1" spans="1:3">
+      <c r="A171" s="5">
+        <v>164</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" s="4" customFormat="1" spans="1:3">
+      <c r="A172" s="5">
+        <v>165</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" s="4" customFormat="1" spans="1:3">
+      <c r="A173" s="5">
+        <v>166</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" s="4" customFormat="1" spans="1:3">
+      <c r="A174" s="5">
+        <v>167</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" s="4" customFormat="1" spans="1:3">
+      <c r="A175" s="5">
+        <v>168</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" s="4" customFormat="1" spans="1:3">
+      <c r="A176" s="5">
+        <v>169</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" s="4" customFormat="1" spans="1:3">
+      <c r="A177" s="5">
+        <v>170</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" s="4" customFormat="1" spans="1:3">
+      <c r="A178" s="5">
+        <v>171</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" s="4" customFormat="1" spans="1:3">
+      <c r="A179" s="5">
+        <v>172</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" s="4" customFormat="1" spans="1:3">
+      <c r="A180" s="5">
+        <v>173</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" s="4" customFormat="1" spans="1:3">
+      <c r="A181" s="5">
+        <v>174</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" s="4" customFormat="1" spans="1:3">
+      <c r="A182" s="5">
+        <v>175</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" s="4" customFormat="1" spans="1:3">
+      <c r="A183" s="5">
+        <v>175</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" s="4" customFormat="1" spans="1:3">
+      <c r="A184" s="5">
+        <v>176</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" s="4" customFormat="1" spans="1:3">
+      <c r="A185" s="5">
+        <v>176</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" s="4" customFormat="1" spans="1:3">
+      <c r="A186" s="5">
+        <v>177</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" s="4" customFormat="1" spans="1:3">
+      <c r="A187" s="5">
+        <v>177</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" s="4" customFormat="1" spans="1:3">
+      <c r="A188" s="5">
+        <v>178</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" s="4" customFormat="1" spans="1:3">
+      <c r="A189" s="5">
+        <v>179</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" s="4" customFormat="1" spans="1:3">
+      <c r="A190" s="5">
+        <v>180</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" s="4" customFormat="1" spans="1:3">
+      <c r="A191" s="5">
+        <v>181</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" s="4" customFormat="1" spans="1:3">
+      <c r="A192" s="5">
+        <v>182</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" s="4" customFormat="1" spans="1:3">
+      <c r="A193" s="5">
+        <v>183</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" s="4" customFormat="1" spans="1:3">
+      <c r="A194" s="5">
+        <v>184</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" s="4" customFormat="1" spans="1:3">
+      <c r="A195" s="5">
+        <v>185</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" s="4" customFormat="1" spans="1:3">
+      <c r="A196" s="5">
+        <v>186</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" s="4" customFormat="1" spans="1:3">
+      <c r="A197" s="5">
+        <v>187</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" s="4" customFormat="1" spans="1:3">
+      <c r="A198" s="5">
+        <v>188</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" s="4" customFormat="1" spans="1:3">
+      <c r="A199" s="5">
+        <v>189</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" s="4" customFormat="1" spans="1:3">
+      <c r="A200" s="5">
+        <v>190</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" s="4" customFormat="1" spans="1:3">
+      <c r="A201" s="5">
+        <v>191</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" s="4" customFormat="1" spans="1:3">
+      <c r="A202" s="5">
+        <v>192</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" s="4" customFormat="1" spans="1:3">
+      <c r="A203" s="5">
+        <v>193</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" s="4" customFormat="1" spans="1:3">
+      <c r="A204" s="5">
+        <v>194</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="5">
+        <v>195</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="5">
+        <v>196</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="5">
+        <v>197</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="5">
+        <v>198</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="5">
+        <v>199</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="5">
+        <v>200</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="5">
+        <v>201</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="5">
+        <v>202</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="5">
+        <v>203</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="5">
+        <v>204</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="5">
+        <v>205</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="5">
+        <v>206</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="5">
+        <v>207</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="5">
+        <v>208</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="5">
+        <v>209</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="5">
+        <v>210</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="5">
+        <v>211</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="5">
+        <v>212</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="5">
+        <v>213</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="5">
+        <v>214</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="5">
+        <v>215</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="5">
+        <v>216</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="5">
+        <v>217</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="5">
+        <v>218</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="5">
+        <v>219</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="5">
+        <v>220</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="5">
+        <v>221</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="5">
+        <v>222</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="5">
+        <v>223</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1" spans="2:2">
       <c r="B258"/>
     </row>
     <row r="259" spans="2:2">
@@ -3618,6 +4532,9 @@
     <row r="299" spans="2:2">
       <c r="B299"/>
     </row>
+    <row r="300" spans="2:2">
+      <c r="B300"/>
+    </row>
     <row r="301" spans="2:2">
       <c r="B301"/>
     </row>
@@ -3678,9 +4595,6 @@
     <row r="320" spans="2:2">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2">
-      <c r="B321"/>
-    </row>
     <row r="322" spans="2:2">
       <c r="B322"/>
     </row>
@@ -3752,11 +4666,74 @@
     </row>
     <row r="345" spans="2:2">
       <c r="B345"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346"/>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347"/>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348"/>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349"/>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350"/>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351"/>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352"/>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353"/>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354"/>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355"/>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356"/>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357"/>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358"/>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359"/>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360"/>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361"/>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362"/>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363"/>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365"/>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C33 C34:C35 C36:C89 C90:C91 C92:C104 C105:C106 C107:C345">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C182 C185 C2:C151 C152:C155 C156:C159 C160:C181 C183:C184 C186:C187 C188:C218 C219:C233 C234:C366">
       <formula1>"唤醒词,命令词,负性词"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3784,57 +4761,57 @@
     <row r="1" ht="15"/>
     <row r="2" ht="18" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" ht="100.5" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/命令词列表_指令中文模板.xlsx
+++ b/命令词列表_指令中文模板.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="261">
   <si>
     <t>语义标签</t>
   </si>
@@ -575,40 +575,82 @@
     <t>第六餐</t>
   </si>
   <si>
-    <t>一份</t>
-  </si>
-  <si>
-    <t>二份</t>
-  </si>
-  <si>
-    <t>三份</t>
-  </si>
-  <si>
-    <t>四份</t>
-  </si>
-  <si>
-    <t>五份</t>
-  </si>
-  <si>
-    <t>六份</t>
-  </si>
-  <si>
-    <t>七份</t>
-  </si>
-  <si>
-    <t>八份</t>
-  </si>
-  <si>
-    <t>九份</t>
-  </si>
-  <si>
-    <t>十份</t>
-  </si>
-  <si>
-    <t>十一份</t>
-  </si>
-  <si>
-    <t>十二份</t>
+    <t>设定一份</t>
+  </si>
+  <si>
+    <t>设置一份</t>
+  </si>
+  <si>
+    <t>设定二份</t>
+  </si>
+  <si>
+    <t>设置二份</t>
+  </si>
+  <si>
+    <t>设定两份</t>
+  </si>
+  <si>
+    <t>设置两份</t>
+  </si>
+  <si>
+    <t>设定三份</t>
+  </si>
+  <si>
+    <t>设置三份</t>
+  </si>
+  <si>
+    <t>设定四份</t>
+  </si>
+  <si>
+    <t>设置四份</t>
+  </si>
+  <si>
+    <t>设定五份</t>
+  </si>
+  <si>
+    <t>设置五份</t>
+  </si>
+  <si>
+    <t>设定六份</t>
+  </si>
+  <si>
+    <t>设置六份</t>
+  </si>
+  <si>
+    <t>设定七份</t>
+  </si>
+  <si>
+    <t>设置七份</t>
+  </si>
+  <si>
+    <t>设定八份</t>
+  </si>
+  <si>
+    <t>设置八份</t>
+  </si>
+  <si>
+    <t>设定九份</t>
+  </si>
+  <si>
+    <t>设置九份</t>
+  </si>
+  <si>
+    <t>设定十份</t>
+  </si>
+  <si>
+    <t>设置十份</t>
+  </si>
+  <si>
+    <t>设定十一份</t>
+  </si>
+  <si>
+    <t>设置十一份</t>
+  </si>
+  <si>
+    <t>设定十二份</t>
+  </si>
+  <si>
+    <t>设置十二份</t>
   </si>
   <si>
     <t>查询计划</t>
@@ -1828,10 +1870,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3736,7 +3778,7 @@
     </row>
     <row r="173" s="4" customFormat="1" spans="1:3">
       <c r="A173" s="5">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>175</v>
@@ -3747,7 +3789,7 @@
     </row>
     <row r="174" s="4" customFormat="1" spans="1:3">
       <c r="A174" s="5">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>176</v>
@@ -3758,7 +3800,7 @@
     </row>
     <row r="175" s="4" customFormat="1" spans="1:3">
       <c r="A175" s="5">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>177</v>
@@ -3769,7 +3811,7 @@
     </row>
     <row r="176" s="4" customFormat="1" spans="1:3">
       <c r="A176" s="5">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>178</v>
@@ -3780,7 +3822,7 @@
     </row>
     <row r="177" s="4" customFormat="1" spans="1:3">
       <c r="A177" s="5">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>179</v>
@@ -3791,7 +3833,7 @@
     </row>
     <row r="178" s="4" customFormat="1" spans="1:3">
       <c r="A178" s="5">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>180</v>
@@ -3802,7 +3844,7 @@
     </row>
     <row r="179" s="4" customFormat="1" spans="1:3">
       <c r="A179" s="5">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>181</v>
@@ -3813,7 +3855,7 @@
     </row>
     <row r="180" s="4" customFormat="1" spans="1:3">
       <c r="A180" s="5">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>182</v>
@@ -3824,7 +3866,7 @@
     </row>
     <row r="181" s="4" customFormat="1" spans="1:3">
       <c r="A181" s="5">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>183</v>
@@ -3835,7 +3877,7 @@
     </row>
     <row r="182" s="4" customFormat="1" spans="1:3">
       <c r="A182" s="5">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>184</v>
@@ -3846,7 +3888,7 @@
     </row>
     <row r="183" s="4" customFormat="1" spans="1:3">
       <c r="A183" s="5">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>185</v>
@@ -3857,7 +3899,7 @@
     </row>
     <row r="184" s="4" customFormat="1" spans="1:3">
       <c r="A184" s="5">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>186</v>
@@ -3868,7 +3910,7 @@
     </row>
     <row r="185" s="4" customFormat="1" spans="1:3">
       <c r="A185" s="5">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>187</v>
@@ -3879,7 +3921,7 @@
     </row>
     <row r="186" s="4" customFormat="1" spans="1:3">
       <c r="A186" s="5">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>188</v>
@@ -3890,7 +3932,7 @@
     </row>
     <row r="187" s="4" customFormat="1" spans="1:3">
       <c r="A187" s="5">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>189</v>
@@ -3901,7 +3943,7 @@
     </row>
     <row r="188" s="4" customFormat="1" spans="1:3">
       <c r="A188" s="5">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>190</v>
@@ -3912,7 +3954,7 @@
     </row>
     <row r="189" s="4" customFormat="1" spans="1:3">
       <c r="A189" s="5">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>191</v>
@@ -3923,7 +3965,7 @@
     </row>
     <row r="190" s="4" customFormat="1" spans="1:3">
       <c r="A190" s="5">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>192</v>
@@ -3934,7 +3976,7 @@
     </row>
     <row r="191" s="4" customFormat="1" spans="1:3">
       <c r="A191" s="5">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>193</v>
@@ -3945,7 +3987,7 @@
     </row>
     <row r="192" s="4" customFormat="1" spans="1:3">
       <c r="A192" s="5">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>194</v>
@@ -3956,7 +3998,7 @@
     </row>
     <row r="193" s="4" customFormat="1" spans="1:3">
       <c r="A193" s="5">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>195</v>
@@ -3967,7 +4009,7 @@
     </row>
     <row r="194" s="4" customFormat="1" spans="1:3">
       <c r="A194" s="5">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>196</v>
@@ -3978,7 +4020,7 @@
     </row>
     <row r="195" s="4" customFormat="1" spans="1:3">
       <c r="A195" s="5">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>197</v>
@@ -3989,7 +4031,7 @@
     </row>
     <row r="196" s="4" customFormat="1" spans="1:3">
       <c r="A196" s="5">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>198</v>
@@ -4000,7 +4042,7 @@
     </row>
     <row r="197" s="4" customFormat="1" spans="1:3">
       <c r="A197" s="5">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>199</v>
@@ -4011,7 +4053,7 @@
     </row>
     <row r="198" s="4" customFormat="1" spans="1:3">
       <c r="A198" s="5">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>200</v>
@@ -4022,7 +4064,7 @@
     </row>
     <row r="199" s="4" customFormat="1" spans="1:3">
       <c r="A199" s="5">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>201</v>
@@ -4033,7 +4075,7 @@
     </row>
     <row r="200" s="4" customFormat="1" spans="1:3">
       <c r="A200" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>202</v>
@@ -4044,7 +4086,7 @@
     </row>
     <row r="201" s="4" customFormat="1" spans="1:3">
       <c r="A201" s="5">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>203</v>
@@ -4055,7 +4097,7 @@
     </row>
     <row r="202" s="4" customFormat="1" spans="1:3">
       <c r="A202" s="5">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>204</v>
@@ -4066,7 +4108,7 @@
     </row>
     <row r="203" s="4" customFormat="1" spans="1:3">
       <c r="A203" s="5">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>205</v>
@@ -4077,7 +4119,7 @@
     </row>
     <row r="204" s="4" customFormat="1" spans="1:3">
       <c r="A204" s="5">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>206</v>
@@ -4086,9 +4128,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" s="4" customFormat="1" spans="1:3">
       <c r="A205" s="5">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>207</v>
@@ -4097,9 +4139,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" s="4" customFormat="1" spans="1:3">
       <c r="A206" s="5">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>208</v>
@@ -4108,9 +4150,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" s="4" customFormat="1" spans="1:3">
       <c r="A207" s="5">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>209</v>
@@ -4119,9 +4161,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" s="4" customFormat="1" spans="1:3">
       <c r="A208" s="5">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>210</v>
@@ -4130,9 +4172,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" s="4" customFormat="1" spans="1:3">
       <c r="A209" s="5">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>211</v>
@@ -4141,9 +4183,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" s="4" customFormat="1" spans="1:3">
       <c r="A210" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>212</v>
@@ -4152,9 +4194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" s="4" customFormat="1" spans="1:3">
       <c r="A211" s="5">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>213</v>
@@ -4163,9 +4205,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" s="4" customFormat="1" spans="1:3">
       <c r="A212" s="5">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>214</v>
@@ -4174,9 +4216,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" s="4" customFormat="1" spans="1:3">
       <c r="A213" s="5">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>215</v>
@@ -4185,9 +4227,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" s="4" customFormat="1" spans="1:3">
       <c r="A214" s="5">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>216</v>
@@ -4196,9 +4238,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" s="4" customFormat="1" spans="1:3">
       <c r="A215" s="5">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>217</v>
@@ -4207,9 +4249,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" s="4" customFormat="1" spans="1:3">
       <c r="A216" s="5">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>218</v>
@@ -4218,9 +4260,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" s="4" customFormat="1" spans="1:3">
       <c r="A217" s="5">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>219</v>
@@ -4229,9 +4271,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" s="4" customFormat="1" spans="1:3">
       <c r="A218" s="5">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>220</v>
@@ -4242,7 +4284,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>221</v>
@@ -4253,7 +4295,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="5">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>222</v>
@@ -4264,7 +4306,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="5">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>223</v>
@@ -4275,7 +4317,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="5">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>224</v>
@@ -4286,7 +4328,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="5">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>225</v>
@@ -4297,7 +4339,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="5">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>226</v>
@@ -4308,7 +4350,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="5">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>227</v>
@@ -4319,7 +4361,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="5">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>228</v>
@@ -4330,7 +4372,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="5">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>229</v>
@@ -4341,7 +4383,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="5">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>230</v>
@@ -4352,7 +4394,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="5">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>231</v>
@@ -4363,7 +4405,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>232</v>
@@ -4374,7 +4416,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="5">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>233</v>
@@ -4385,7 +4427,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="5">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>234</v>
@@ -4396,7 +4438,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="5">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>235</v>
@@ -4405,50 +4447,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1" spans="2:2">
-      <c r="B258"/>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259"/>
-    </row>
-    <row r="260" spans="2:2">
-      <c r="B260"/>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261"/>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262"/>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263"/>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264"/>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265"/>
-    </row>
-    <row r="266" spans="2:2">
-      <c r="B266"/>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267"/>
-    </row>
-    <row r="268" spans="2:2">
-      <c r="B268"/>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269"/>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270"/>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271"/>
-    </row>
-    <row r="272" spans="2:2">
+    <row r="234" spans="1:3">
+      <c r="A234" s="5">
+        <v>214</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="5">
+        <v>215</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="5">
+        <v>216</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="5">
+        <v>217</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="5">
+        <v>218</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="5">
+        <v>219</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="5">
+        <v>220</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="5">
+        <v>221</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="5">
+        <v>222</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="5">
+        <v>223</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="5">
+        <v>224</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="5">
+        <v>225</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="5">
+        <v>226</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="5">
+        <v>227</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1" spans="2:2">
       <c r="B272"/>
     </row>
     <row r="273" spans="2:2">
@@ -4595,6 +4749,9 @@
     <row r="320" spans="2:2">
       <c r="B320"/>
     </row>
+    <row r="321" spans="2:2">
+      <c r="B321"/>
+    </row>
     <row r="322" spans="2:2">
       <c r="B322"/>
     </row>
@@ -4634,9 +4791,6 @@
     <row r="334" spans="2:2">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2">
-      <c r="B335"/>
-    </row>
     <row r="336" spans="2:2">
       <c r="B336"/>
     </row>
@@ -4729,11 +4883,53 @@
     </row>
     <row r="366" spans="2:2">
       <c r="B366"/>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367"/>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368"/>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369"/>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370"/>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371"/>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372"/>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373"/>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374"/>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375"/>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376"/>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377"/>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378"/>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379"/>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C182 C185 C2:C151 C152:C155 C156:C159 C160:C181 C183:C184 C186:C187 C188:C218 C219:C233 C234:C366">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C171 C172:C197 C198:C380">
       <formula1>"唤醒词,命令词,负性词"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4761,57 +4957,57 @@
     <row r="1" ht="15"/>
     <row r="2" ht="18" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="100.5" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/命令词列表_指令中文模板.xlsx
+++ b/命令词列表_指令中文模板.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="248">
   <si>
     <t>语义标签</t>
   </si>
@@ -575,82 +575,40 @@
     <t>第六餐</t>
   </si>
   <si>
-    <t>设定一份</t>
-  </si>
-  <si>
-    <t>设置一份</t>
-  </si>
-  <si>
-    <t>设定二份</t>
-  </si>
-  <si>
-    <t>设置二份</t>
-  </si>
-  <si>
-    <t>设定两份</t>
-  </si>
-  <si>
-    <t>设置两份</t>
-  </si>
-  <si>
-    <t>设定三份</t>
-  </si>
-  <si>
-    <t>设置三份</t>
-  </si>
-  <si>
-    <t>设定四份</t>
-  </si>
-  <si>
-    <t>设置四份</t>
-  </si>
-  <si>
-    <t>设定五份</t>
-  </si>
-  <si>
-    <t>设置五份</t>
-  </si>
-  <si>
-    <t>设定六份</t>
-  </si>
-  <si>
-    <t>设置六份</t>
-  </si>
-  <si>
-    <t>设定七份</t>
-  </si>
-  <si>
-    <t>设置七份</t>
-  </si>
-  <si>
-    <t>设定八份</t>
-  </si>
-  <si>
-    <t>设置八份</t>
-  </si>
-  <si>
-    <t>设定九份</t>
-  </si>
-  <si>
-    <t>设置九份</t>
-  </si>
-  <si>
-    <t>设定十份</t>
-  </si>
-  <si>
-    <t>设置十份</t>
-  </si>
-  <si>
-    <t>设定十一份</t>
-  </si>
-  <si>
-    <t>设置十一份</t>
-  </si>
-  <si>
-    <t>设定十二份</t>
-  </si>
-  <si>
-    <t>设置十二份</t>
+    <t>一份</t>
+  </si>
+  <si>
+    <t>二份</t>
+  </si>
+  <si>
+    <t>三份</t>
+  </si>
+  <si>
+    <t>四份</t>
+  </si>
+  <si>
+    <t>五份</t>
+  </si>
+  <si>
+    <t>六份</t>
+  </si>
+  <si>
+    <t>七份</t>
+  </si>
+  <si>
+    <t>八份</t>
+  </si>
+  <si>
+    <t>九份</t>
+  </si>
+  <si>
+    <t>十份</t>
+  </si>
+  <si>
+    <t>十一份</t>
+  </si>
+  <si>
+    <t>十二份</t>
   </si>
   <si>
     <t>查询计划</t>
@@ -669,6 +627,9 @@
   </si>
   <si>
     <t>进入语音喂食</t>
+  </si>
+  <si>
+    <t>语音喂食</t>
   </si>
   <si>
     <t>出粮一份</t>
@@ -1870,10 +1831,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C380"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3778,7 +3739,7 @@
     </row>
     <row r="173" s="4" customFormat="1" spans="1:3">
       <c r="A173" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>175</v>
@@ -3789,7 +3750,7 @@
     </row>
     <row r="174" s="4" customFormat="1" spans="1:3">
       <c r="A174" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>176</v>
@@ -3800,7 +3761,7 @@
     </row>
     <row r="175" s="4" customFormat="1" spans="1:3">
       <c r="A175" s="5">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>177</v>
@@ -3811,7 +3772,7 @@
     </row>
     <row r="176" s="4" customFormat="1" spans="1:3">
       <c r="A176" s="5">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>178</v>
@@ -3822,7 +3783,7 @@
     </row>
     <row r="177" s="4" customFormat="1" spans="1:3">
       <c r="A177" s="5">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>179</v>
@@ -3833,7 +3794,7 @@
     </row>
     <row r="178" s="4" customFormat="1" spans="1:3">
       <c r="A178" s="5">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>180</v>
@@ -3844,7 +3805,7 @@
     </row>
     <row r="179" s="4" customFormat="1" spans="1:3">
       <c r="A179" s="5">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>181</v>
@@ -3855,7 +3816,7 @@
     </row>
     <row r="180" s="4" customFormat="1" spans="1:3">
       <c r="A180" s="5">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>182</v>
@@ -3866,7 +3827,7 @@
     </row>
     <row r="181" s="4" customFormat="1" spans="1:3">
       <c r="A181" s="5">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>183</v>
@@ -3877,7 +3838,7 @@
     </row>
     <row r="182" s="4" customFormat="1" spans="1:3">
       <c r="A182" s="5">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>184</v>
@@ -3888,7 +3849,7 @@
     </row>
     <row r="183" s="4" customFormat="1" spans="1:3">
       <c r="A183" s="5">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>185</v>
@@ -3899,7 +3860,7 @@
     </row>
     <row r="184" s="4" customFormat="1" spans="1:3">
       <c r="A184" s="5">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>186</v>
@@ -3910,7 +3871,7 @@
     </row>
     <row r="185" s="4" customFormat="1" spans="1:3">
       <c r="A185" s="5">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>187</v>
@@ -3921,7 +3882,7 @@
     </row>
     <row r="186" s="4" customFormat="1" spans="1:3">
       <c r="A186" s="5">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>188</v>
@@ -3932,7 +3893,7 @@
     </row>
     <row r="187" s="4" customFormat="1" spans="1:3">
       <c r="A187" s="5">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>189</v>
@@ -3943,7 +3904,7 @@
     </row>
     <row r="188" s="4" customFormat="1" spans="1:3">
       <c r="A188" s="5">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>190</v>
@@ -3954,7 +3915,7 @@
     </row>
     <row r="189" s="4" customFormat="1" spans="1:3">
       <c r="A189" s="5">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>191</v>
@@ -3965,7 +3926,7 @@
     </row>
     <row r="190" s="4" customFormat="1" spans="1:3">
       <c r="A190" s="5">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>192</v>
@@ -3976,7 +3937,7 @@
     </row>
     <row r="191" s="4" customFormat="1" spans="1:3">
       <c r="A191" s="5">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>193</v>
@@ -3987,7 +3948,7 @@
     </row>
     <row r="192" s="4" customFormat="1" spans="1:3">
       <c r="A192" s="5">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>194</v>
@@ -3998,7 +3959,7 @@
     </row>
     <row r="193" s="4" customFormat="1" spans="1:3">
       <c r="A193" s="5">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>195</v>
@@ -4009,7 +3970,7 @@
     </row>
     <row r="194" s="4" customFormat="1" spans="1:3">
       <c r="A194" s="5">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>196</v>
@@ -4020,7 +3981,7 @@
     </row>
     <row r="195" s="4" customFormat="1" spans="1:3">
       <c r="A195" s="5">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>197</v>
@@ -4031,7 +3992,7 @@
     </row>
     <row r="196" s="4" customFormat="1" spans="1:3">
       <c r="A196" s="5">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>198</v>
@@ -4042,7 +4003,7 @@
     </row>
     <row r="197" s="4" customFormat="1" spans="1:3">
       <c r="A197" s="5">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>199</v>
@@ -4053,7 +4014,7 @@
     </row>
     <row r="198" s="4" customFormat="1" spans="1:3">
       <c r="A198" s="5">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>200</v>
@@ -4064,7 +4025,7 @@
     </row>
     <row r="199" s="4" customFormat="1" spans="1:3">
       <c r="A199" s="5">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>201</v>
@@ -4075,7 +4036,7 @@
     </row>
     <row r="200" s="4" customFormat="1" spans="1:3">
       <c r="A200" s="5">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>202</v>
@@ -4086,7 +4047,7 @@
     </row>
     <row r="201" s="4" customFormat="1" spans="1:3">
       <c r="A201" s="5">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>203</v>
@@ -4097,7 +4058,7 @@
     </row>
     <row r="202" s="4" customFormat="1" spans="1:3">
       <c r="A202" s="5">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>204</v>
@@ -4108,7 +4069,7 @@
     </row>
     <row r="203" s="4" customFormat="1" spans="1:3">
       <c r="A203" s="5">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>205</v>
@@ -4119,7 +4080,7 @@
     </row>
     <row r="204" s="4" customFormat="1" spans="1:3">
       <c r="A204" s="5">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>206</v>
@@ -4130,7 +4091,7 @@
     </row>
     <row r="205" s="4" customFormat="1" spans="1:3">
       <c r="A205" s="5">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>207</v>
@@ -4139,9 +4100,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" s="4" customFormat="1" spans="1:3">
+    <row r="206" spans="1:3">
       <c r="A206" s="5">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>208</v>
@@ -4150,9 +4111,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" s="4" customFormat="1" spans="1:3">
+    <row r="207" spans="1:3">
       <c r="A207" s="5">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>209</v>
@@ -4161,9 +4122,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" s="4" customFormat="1" spans="1:3">
+    <row r="208" spans="1:3">
       <c r="A208" s="5">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>210</v>
@@ -4172,9 +4133,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" s="4" customFormat="1" spans="1:3">
+    <row r="209" spans="1:3">
       <c r="A209" s="5">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>211</v>
@@ -4183,9 +4144,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" s="4" customFormat="1" spans="1:3">
+    <row r="210" spans="1:3">
       <c r="A210" s="5">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>212</v>
@@ -4194,9 +4155,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" s="4" customFormat="1" spans="1:3">
+    <row r="211" spans="1:3">
       <c r="A211" s="5">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>213</v>
@@ -4205,9 +4166,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" s="4" customFormat="1" spans="1:3">
+    <row r="212" spans="1:3">
       <c r="A212" s="5">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>214</v>
@@ -4216,9 +4177,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" s="4" customFormat="1" spans="1:3">
+    <row r="213" spans="1:3">
       <c r="A213" s="5">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>215</v>
@@ -4227,9 +4188,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" s="4" customFormat="1" spans="1:3">
+    <row r="214" spans="1:3">
       <c r="A214" s="5">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>216</v>
@@ -4238,9 +4199,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" s="4" customFormat="1" spans="1:3">
+    <row r="215" spans="1:3">
       <c r="A215" s="5">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>217</v>
@@ -4249,9 +4210,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" s="4" customFormat="1" spans="1:3">
+    <row r="216" spans="1:3">
       <c r="A216" s="5">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>218</v>
@@ -4260,9 +4221,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" s="4" customFormat="1" spans="1:3">
+    <row r="217" spans="1:3">
       <c r="A217" s="5">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>219</v>
@@ -4271,9 +4232,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" s="4" customFormat="1" spans="1:3">
+    <row r="218" spans="1:3">
       <c r="A218" s="5">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>220</v>
@@ -4284,7 +4245,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>221</v>
@@ -4295,7 +4256,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="5">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>222</v>
@@ -4306,7 +4267,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="5">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>223</v>
@@ -4317,7 +4278,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="5">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>224</v>
@@ -4328,7 +4289,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="5">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>225</v>
@@ -4339,7 +4300,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="5">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>226</v>
@@ -4350,7 +4311,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="5">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>227</v>
@@ -4361,7 +4322,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="5">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>228</v>
@@ -4372,7 +4333,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="5">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>229</v>
@@ -4383,7 +4344,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="5">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>230</v>
@@ -4394,7 +4355,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="5">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>231</v>
@@ -4405,7 +4366,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>232</v>
@@ -4416,7 +4377,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="5">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>233</v>
@@ -4427,7 +4388,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="5">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>234</v>
@@ -4438,7 +4399,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="5">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>235</v>
@@ -4449,7 +4410,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="5">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>236</v>
@@ -4458,151 +4419,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="5">
-        <v>215</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="5">
-        <v>216</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="5">
-        <v>217</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="5">
-        <v>218</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="5">
-        <v>219</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="5">
-        <v>220</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="5">
-        <v>221</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="5">
-        <v>222</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="5">
-        <v>223</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="5">
-        <v>224</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="5">
-        <v>225</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="5">
-        <v>226</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="5">
-        <v>227</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1" spans="2:2">
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1" spans="2:2">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="2:2">
       <c r="B272"/>
     </row>
     <row r="273" spans="2:2">
@@ -4752,9 +4609,6 @@
     <row r="321" spans="2:2">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2">
-      <c r="B322"/>
-    </row>
     <row r="323" spans="2:2">
       <c r="B323"/>
     </row>
@@ -4791,6 +4645,9 @@
     <row r="334" spans="2:2">
       <c r="B334"/>
     </row>
+    <row r="335" spans="2:2">
+      <c r="B335"/>
+    </row>
     <row r="336" spans="2:2">
       <c r="B336"/>
     </row>
@@ -4886,50 +4743,11 @@
     </row>
     <row r="367" spans="2:2">
       <c r="B367"/>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368"/>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369"/>
-    </row>
-    <row r="370" spans="2:2">
-      <c r="B370"/>
-    </row>
-    <row r="371" spans="2:2">
-      <c r="B371"/>
-    </row>
-    <row r="372" spans="2:2">
-      <c r="B372"/>
-    </row>
-    <row r="373" spans="2:2">
-      <c r="B373"/>
-    </row>
-    <row r="374" spans="2:2">
-      <c r="B374"/>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375"/>
-    </row>
-    <row r="376" spans="2:2">
-      <c r="B376"/>
-    </row>
-    <row r="377" spans="2:2">
-      <c r="B377"/>
-    </row>
-    <row r="378" spans="2:2">
-      <c r="B378"/>
-    </row>
-    <row r="379" spans="2:2">
-      <c r="B379"/>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C171 C172:C197 C198:C380">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C188 C189:C190 C191:C367">
       <formula1>"唤醒词,命令词,负性词"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4957,57 +4775,57 @@
     <row r="1" ht="15"/>
     <row r="2" ht="18" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" ht="100.5" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
